--- a/Input/StockList.xlsx
+++ b/Input/StockList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camwa\OneDrive\Google Drive\WORK\Post-Graduate\Capstone\Code\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camwa\Documents\Google Drive\WORK\Post-Graduate\Capstone\Code\Pluto\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="5_{722986C2-9132-4711-AF3D-3D28567807E5}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA9AD17-631F-4960-9C34-9A08964C983D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11280" tabRatio="873" firstSheet="7" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="6" r:id="rId1"/>
@@ -21,13 +21,27 @@
     <sheet name="asx100-20171001" sheetId="3" r:id="rId6"/>
     <sheet name="asx200-20171001" sheetId="4" r:id="rId7"/>
     <sheet name="asx300-20171001" sheetId="5" r:id="rId8"/>
+    <sheet name="Consumer Staples-20171001" sheetId="10" r:id="rId9"/>
+    <sheet name="Consumer Discretionary-20171001" sheetId="11" r:id="rId10"/>
+    <sheet name="Materials-20171001" sheetId="12" r:id="rId11"/>
+    <sheet name="Real Estate-20171001" sheetId="13" r:id="rId12"/>
+    <sheet name="Information Technology-20171001" sheetId="14" r:id="rId13"/>
+    <sheet name="Utilities-20171001" sheetId="15" r:id="rId14"/>
+    <sheet name="Industrials-20171001" sheetId="16" r:id="rId15"/>
+    <sheet name="Financials-20171001" sheetId="17" r:id="rId16"/>
+    <sheet name="Health Care-20171001" sheetId="18" r:id="rId17"/>
+    <sheet name="Energy-20171001" sheetId="19" r:id="rId18"/>
+    <sheet name="Telcom-20171001" sheetId="20" r:id="rId19"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'asx300-20171001'!$A$1:$C$300</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2058" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2988" uniqueCount="620">
   <si>
     <t>Code</t>
   </si>
@@ -2734,9 +2748,9 @@
       <selection activeCell="A2" sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2747,7 +2761,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -2756,6 +2770,3324 @@
       </c>
       <c r="C2" t="s">
         <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{550A6A48-CBF7-4444-8340-25677613EB81}">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B3" t="s">
+        <v>415</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>234</v>
+      </c>
+      <c r="B7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>236</v>
+      </c>
+      <c r="B8" t="s">
+        <v>237</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>238</v>
+      </c>
+      <c r="B9" t="s">
+        <v>239</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>440</v>
+      </c>
+      <c r="B10" t="s">
+        <v>441</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>248</v>
+      </c>
+      <c r="B11" t="s">
+        <v>249</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>456</v>
+      </c>
+      <c r="B12" t="s">
+        <v>457</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>264</v>
+      </c>
+      <c r="B13" t="s">
+        <v>265</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>148</v>
+      </c>
+      <c r="B14" t="s">
+        <v>149</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>154</v>
+      </c>
+      <c r="B15" t="s">
+        <v>155</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>160</v>
+      </c>
+      <c r="B16" t="s">
+        <v>161</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>162</v>
+      </c>
+      <c r="B17" t="s">
+        <v>163</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>278</v>
+      </c>
+      <c r="B18" t="s">
+        <v>279</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>286</v>
+      </c>
+      <c r="B19" t="s">
+        <v>287</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>290</v>
+      </c>
+      <c r="B20" t="s">
+        <v>291</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>294</v>
+      </c>
+      <c r="B21" t="s">
+        <v>295</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>168</v>
+      </c>
+      <c r="B22" t="s">
+        <v>169</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>500</v>
+      </c>
+      <c r="B23" t="s">
+        <v>501</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>516</v>
+      </c>
+      <c r="B24" t="s">
+        <v>517</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>306</v>
+      </c>
+      <c r="B25" t="s">
+        <v>307</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>176</v>
+      </c>
+      <c r="B26" t="s">
+        <v>177</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>316</v>
+      </c>
+      <c r="B27" t="s">
+        <v>317</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>322</v>
+      </c>
+      <c r="B28" t="s">
+        <v>323</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>538</v>
+      </c>
+      <c r="B29" t="s">
+        <v>539</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>328</v>
+      </c>
+      <c r="B30" t="s">
+        <v>329</v>
+      </c>
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>336</v>
+      </c>
+      <c r="B31" t="s">
+        <v>337</v>
+      </c>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>338</v>
+      </c>
+      <c r="B32" t="s">
+        <v>339</v>
+      </c>
+      <c r="C32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>342</v>
+      </c>
+      <c r="B33" t="s">
+        <v>343</v>
+      </c>
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>348</v>
+      </c>
+      <c r="B34" t="s">
+        <v>349</v>
+      </c>
+      <c r="C34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>554</v>
+      </c>
+      <c r="B35" t="s">
+        <v>555</v>
+      </c>
+      <c r="C35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>196</v>
+      </c>
+      <c r="B36" t="s">
+        <v>197</v>
+      </c>
+      <c r="C36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>356</v>
+      </c>
+      <c r="B37" t="s">
+        <v>357</v>
+      </c>
+      <c r="C37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>202</v>
+      </c>
+      <c r="B38" t="s">
+        <v>203</v>
+      </c>
+      <c r="C38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>380</v>
+      </c>
+      <c r="B39" t="s">
+        <v>381</v>
+      </c>
+      <c r="C39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>574</v>
+      </c>
+      <c r="B40" t="s">
+        <v>575</v>
+      </c>
+      <c r="C40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>578</v>
+      </c>
+      <c r="B41" t="s">
+        <v>579</v>
+      </c>
+      <c r="C41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>388</v>
+      </c>
+      <c r="B42" t="s">
+        <v>389</v>
+      </c>
+      <c r="C42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>392</v>
+      </c>
+      <c r="B43" t="s">
+        <v>393</v>
+      </c>
+      <c r="C43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>394</v>
+      </c>
+      <c r="B44" t="s">
+        <v>395</v>
+      </c>
+      <c r="C44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>206</v>
+      </c>
+      <c r="B45" t="s">
+        <v>207</v>
+      </c>
+      <c r="C45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>590</v>
+      </c>
+      <c r="B46" t="s">
+        <v>591</v>
+      </c>
+      <c r="C46" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>400</v>
+      </c>
+      <c r="B47" t="s">
+        <v>401</v>
+      </c>
+      <c r="C47" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>210</v>
+      </c>
+      <c r="B48" t="s">
+        <v>211</v>
+      </c>
+      <c r="C48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>596</v>
+      </c>
+      <c r="B49" t="s">
+        <v>597</v>
+      </c>
+      <c r="C49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>600</v>
+      </c>
+      <c r="B50" t="s">
+        <v>601</v>
+      </c>
+      <c r="C50" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>406</v>
+      </c>
+      <c r="B51" t="s">
+        <v>407</v>
+      </c>
+      <c r="C51" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>606</v>
+      </c>
+      <c r="B52" t="s">
+        <v>607</v>
+      </c>
+      <c r="C52" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E1F379D-D895-41DB-AC26-01FD69FED917}">
+  <dimension ref="A1:C53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>424</v>
+      </c>
+      <c r="B4" t="s">
+        <v>425</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>430</v>
+      </c>
+      <c r="B5" t="s">
+        <v>431</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>442</v>
+      </c>
+      <c r="B7" t="s">
+        <v>443</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B9" t="s">
+        <v>245</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>468</v>
+      </c>
+      <c r="B13" t="s">
+        <v>469</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B14" t="s">
+        <v>153</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>158</v>
+      </c>
+      <c r="B15" t="s">
+        <v>159</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>272</v>
+      </c>
+      <c r="B16" t="s">
+        <v>273</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>486</v>
+      </c>
+      <c r="B18" t="s">
+        <v>487</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>292</v>
+      </c>
+      <c r="B19" t="s">
+        <v>293</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>490</v>
+      </c>
+      <c r="B20" t="s">
+        <v>491</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>298</v>
+      </c>
+      <c r="B21" t="s">
+        <v>299</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>172</v>
+      </c>
+      <c r="B22" t="s">
+        <v>173</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>504</v>
+      </c>
+      <c r="B23" t="s">
+        <v>505</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>522</v>
+      </c>
+      <c r="B26" t="s">
+        <v>523</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>310</v>
+      </c>
+      <c r="B27" t="s">
+        <v>311</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>524</v>
+      </c>
+      <c r="B28" t="s">
+        <v>525</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>526</v>
+      </c>
+      <c r="B29" t="s">
+        <v>527</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>528</v>
+      </c>
+      <c r="B30" t="s">
+        <v>529</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>186</v>
+      </c>
+      <c r="B32" t="s">
+        <v>187</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>334</v>
+      </c>
+      <c r="B33" t="s">
+        <v>335</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>544</v>
+      </c>
+      <c r="B34" t="s">
+        <v>545</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>188</v>
+      </c>
+      <c r="B35" t="s">
+        <v>189</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>344</v>
+      </c>
+      <c r="B36" t="s">
+        <v>345</v>
+      </c>
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>190</v>
+      </c>
+      <c r="B38" t="s">
+        <v>191</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>346</v>
+      </c>
+      <c r="B39" t="s">
+        <v>347</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>548</v>
+      </c>
+      <c r="B40" t="s">
+        <v>549</v>
+      </c>
+      <c r="C40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>552</v>
+      </c>
+      <c r="B41" t="s">
+        <v>553</v>
+      </c>
+      <c r="C41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>358</v>
+      </c>
+      <c r="B43" t="s">
+        <v>359</v>
+      </c>
+      <c r="C43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>360</v>
+      </c>
+      <c r="B44" t="s">
+        <v>361</v>
+      </c>
+      <c r="C44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>364</v>
+      </c>
+      <c r="B46" t="s">
+        <v>365</v>
+      </c>
+      <c r="C46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>366</v>
+      </c>
+      <c r="B47" t="s">
+        <v>367</v>
+      </c>
+      <c r="C47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>374</v>
+      </c>
+      <c r="B48" t="s">
+        <v>375</v>
+      </c>
+      <c r="C48" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>376</v>
+      </c>
+      <c r="B49" t="s">
+        <v>377</v>
+      </c>
+      <c r="C49" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>580</v>
+      </c>
+      <c r="B50" t="s">
+        <v>581</v>
+      </c>
+      <c r="C50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>396</v>
+      </c>
+      <c r="B51" t="s">
+        <v>397</v>
+      </c>
+      <c r="C51" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>604</v>
+      </c>
+      <c r="B52" t="s">
+        <v>605</v>
+      </c>
+      <c r="C52" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>412</v>
+      </c>
+      <c r="B53" t="s">
+        <v>413</v>
+      </c>
+      <c r="C53" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626E7A37-AB45-474B-A142-0BD03D310DB7}">
+  <dimension ref="A1:C38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>426</v>
+      </c>
+      <c r="B4" t="s">
+        <v>427</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>432</v>
+      </c>
+      <c r="B5" t="s">
+        <v>433</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B6" t="s">
+        <v>251</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>454</v>
+      </c>
+      <c r="B8" t="s">
+        <v>455</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>256</v>
+      </c>
+      <c r="B9" t="s">
+        <v>257</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>462</v>
+      </c>
+      <c r="B10" t="s">
+        <v>463</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>258</v>
+      </c>
+      <c r="B11" t="s">
+        <v>259</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>262</v>
+      </c>
+      <c r="B12" t="s">
+        <v>263</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>466</v>
+      </c>
+      <c r="B13" t="s">
+        <v>467</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>478</v>
+      </c>
+      <c r="B15" t="s">
+        <v>479</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>484</v>
+      </c>
+      <c r="B16" t="s">
+        <v>485</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>282</v>
+      </c>
+      <c r="B18" t="s">
+        <v>283</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>284</v>
+      </c>
+      <c r="B20" t="s">
+        <v>285</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>492</v>
+      </c>
+      <c r="B21" t="s">
+        <v>493</v>
+      </c>
+      <c r="C21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>498</v>
+      </c>
+      <c r="B22" t="s">
+        <v>499</v>
+      </c>
+      <c r="C22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>508</v>
+      </c>
+      <c r="B23" t="s">
+        <v>509</v>
+      </c>
+      <c r="C23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>300</v>
+      </c>
+      <c r="B24" t="s">
+        <v>301</v>
+      </c>
+      <c r="C24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>174</v>
+      </c>
+      <c r="B25" t="s">
+        <v>175</v>
+      </c>
+      <c r="C25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>332</v>
+      </c>
+      <c r="B28" t="s">
+        <v>333</v>
+      </c>
+      <c r="C28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>546</v>
+      </c>
+      <c r="B29" t="s">
+        <v>547</v>
+      </c>
+      <c r="C29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>558</v>
+      </c>
+      <c r="B30" t="s">
+        <v>559</v>
+      </c>
+      <c r="C30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>368</v>
+      </c>
+      <c r="B32" t="s">
+        <v>369</v>
+      </c>
+      <c r="C32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>584</v>
+      </c>
+      <c r="B34" t="s">
+        <v>585</v>
+      </c>
+      <c r="C34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>594</v>
+      </c>
+      <c r="B36" t="s">
+        <v>595</v>
+      </c>
+      <c r="C36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>404</v>
+      </c>
+      <c r="B37" t="s">
+        <v>405</v>
+      </c>
+      <c r="C37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>106</v>
+      </c>
+      <c r="B38" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57A49B37-79C3-4EB6-8F61-FBFAD1627F1D}">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>420</v>
+      </c>
+      <c r="B4" t="s">
+        <v>421</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>422</v>
+      </c>
+      <c r="B5" t="s">
+        <v>423</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>458</v>
+      </c>
+      <c r="B7" t="s">
+        <v>459</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>482</v>
+      </c>
+      <c r="B9" t="s">
+        <v>483</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>494</v>
+      </c>
+      <c r="B10" t="s">
+        <v>495</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>502</v>
+      </c>
+      <c r="B11" t="s">
+        <v>503</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>304</v>
+      </c>
+      <c r="B12" t="s">
+        <v>305</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>514</v>
+      </c>
+      <c r="B13" t="s">
+        <v>515</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>180</v>
+      </c>
+      <c r="B14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>320</v>
+      </c>
+      <c r="B15" t="s">
+        <v>321</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>540</v>
+      </c>
+      <c r="B16" t="s">
+        <v>541</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>340</v>
+      </c>
+      <c r="B17" t="s">
+        <v>341</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>402</v>
+      </c>
+      <c r="B18" t="s">
+        <v>403</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>608</v>
+      </c>
+      <c r="B19" t="s">
+        <v>609</v>
+      </c>
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>610</v>
+      </c>
+      <c r="B20" t="s">
+        <v>611</v>
+      </c>
+      <c r="C20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48782650-C639-43ED-8B0C-4299D60CB681}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>474</v>
+      </c>
+      <c r="B5" t="s">
+        <v>475</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>296</v>
+      </c>
+      <c r="B6" t="s">
+        <v>297</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>204</v>
+      </c>
+      <c r="B7" t="s">
+        <v>205</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80AA15E0-20C4-4F9A-A5F1-51BA03B434FA}">
+  <dimension ref="A1:C32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>428</v>
+      </c>
+      <c r="B4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>444</v>
+      </c>
+      <c r="B6" t="s">
+        <v>445</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>450</v>
+      </c>
+      <c r="B8" t="s">
+        <v>451</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>452</v>
+      </c>
+      <c r="B9" t="s">
+        <v>453</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>460</v>
+      </c>
+      <c r="B11" t="s">
+        <v>461</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>266</v>
+      </c>
+      <c r="B12" t="s">
+        <v>267</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>288</v>
+      </c>
+      <c r="B14" t="s">
+        <v>289</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>302</v>
+      </c>
+      <c r="B15" t="s">
+        <v>303</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>312</v>
+      </c>
+      <c r="B16" t="s">
+        <v>313</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>314</v>
+      </c>
+      <c r="B17" t="s">
+        <v>315</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>184</v>
+      </c>
+      <c r="B18" t="s">
+        <v>185</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>550</v>
+      </c>
+      <c r="B19" t="s">
+        <v>551</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>194</v>
+      </c>
+      <c r="B21" t="s">
+        <v>195</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>556</v>
+      </c>
+      <c r="B22" t="s">
+        <v>557</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>362</v>
+      </c>
+      <c r="B23" t="s">
+        <v>363</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>200</v>
+      </c>
+      <c r="B24" t="s">
+        <v>201</v>
+      </c>
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>566</v>
+      </c>
+      <c r="B25" t="s">
+        <v>567</v>
+      </c>
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>570</v>
+      </c>
+      <c r="B26" t="s">
+        <v>571</v>
+      </c>
+      <c r="C26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>572</v>
+      </c>
+      <c r="B27" t="s">
+        <v>573</v>
+      </c>
+      <c r="C27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>586</v>
+      </c>
+      <c r="B28" t="s">
+        <v>587</v>
+      </c>
+      <c r="C28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>390</v>
+      </c>
+      <c r="B29" t="s">
+        <v>391</v>
+      </c>
+      <c r="C29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>592</v>
+      </c>
+      <c r="B32" t="s">
+        <v>593</v>
+      </c>
+      <c r="C32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED99BACE-C603-4237-A006-79687864266A}">
+  <dimension ref="A1:C37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>446</v>
+      </c>
+      <c r="B6" t="s">
+        <v>447</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>252</v>
+      </c>
+      <c r="B10" t="s">
+        <v>253</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>268</v>
+      </c>
+      <c r="B13" t="s">
+        <v>269</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>472</v>
+      </c>
+      <c r="B14" t="s">
+        <v>473</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>276</v>
+      </c>
+      <c r="B15" t="s">
+        <v>277</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>280</v>
+      </c>
+      <c r="B16" t="s">
+        <v>281</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>488</v>
+      </c>
+      <c r="B17" t="s">
+        <v>489</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>496</v>
+      </c>
+      <c r="B18" t="s">
+        <v>497</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>170</v>
+      </c>
+      <c r="B20" t="s">
+        <v>171</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>506</v>
+      </c>
+      <c r="B21" t="s">
+        <v>507</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>178</v>
+      </c>
+      <c r="B22" t="s">
+        <v>179</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>182</v>
+      </c>
+      <c r="B23" t="s">
+        <v>183</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>530</v>
+      </c>
+      <c r="B24" t="s">
+        <v>531</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>536</v>
+      </c>
+      <c r="B27" t="s">
+        <v>537</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>330</v>
+      </c>
+      <c r="B29" t="s">
+        <v>331</v>
+      </c>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>542</v>
+      </c>
+      <c r="B30" t="s">
+        <v>543</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>192</v>
+      </c>
+      <c r="B31" t="s">
+        <v>193</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>352</v>
+      </c>
+      <c r="B32" t="s">
+        <v>353</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>562</v>
+      </c>
+      <c r="B34" t="s">
+        <v>563</v>
+      </c>
+      <c r="C34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>372</v>
+      </c>
+      <c r="B35" t="s">
+        <v>373</v>
+      </c>
+      <c r="C35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>92</v>
+      </c>
+      <c r="B36" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5EF00DA-ED2D-486D-8ED2-3121D387566F}">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>270</v>
+      </c>
+      <c r="B6" t="s">
+        <v>271</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B7" t="s">
+        <v>275</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>512</v>
+      </c>
+      <c r="B9" t="s">
+        <v>513</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>308</v>
+      </c>
+      <c r="B10" t="s">
+        <v>309</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>532</v>
+      </c>
+      <c r="B11" t="s">
+        <v>533</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>534</v>
+      </c>
+      <c r="B12" t="s">
+        <v>535</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>324</v>
+      </c>
+      <c r="B13" t="s">
+        <v>325</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>326</v>
+      </c>
+      <c r="B14" t="s">
+        <v>327</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>350</v>
+      </c>
+      <c r="B15" t="s">
+        <v>351</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>354</v>
+      </c>
+      <c r="B16" t="s">
+        <v>355</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>198</v>
+      </c>
+      <c r="B18" t="s">
+        <v>199</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>378</v>
+      </c>
+      <c r="B20" t="s">
+        <v>379</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>582</v>
+      </c>
+      <c r="B21" t="s">
+        <v>583</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>386</v>
+      </c>
+      <c r="B22" t="s">
+        <v>387</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>598</v>
+      </c>
+      <c r="B23" t="s">
+        <v>599</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF77807E-06D7-483C-8A7C-E43FE9C84BAE}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>434</v>
+      </c>
+      <c r="B2" t="s">
+        <v>435</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>464</v>
+      </c>
+      <c r="B4" t="s">
+        <v>465</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>476</v>
+      </c>
+      <c r="B6" t="s">
+        <v>477</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>518</v>
+      </c>
+      <c r="B7" t="s">
+        <v>519</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>520</v>
+      </c>
+      <c r="B8" t="s">
+        <v>521</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>564</v>
+      </c>
+      <c r="B11" t="s">
+        <v>565</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>382</v>
+      </c>
+      <c r="B12" t="s">
+        <v>383</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>588</v>
+      </c>
+      <c r="B14" t="s">
+        <v>589</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>408</v>
+      </c>
+      <c r="B15" t="s">
+        <v>409</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>410</v>
+      </c>
+      <c r="B16" t="s">
+        <v>411</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFAE80CB-B75E-4A8D-B0B5-34D35E246F1F}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B2" t="s">
+        <v>437</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>370</v>
+      </c>
+      <c r="B4" t="s">
+        <v>371</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>576</v>
+      </c>
+      <c r="B5" t="s">
+        <v>577</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>384</v>
+      </c>
+      <c r="B6" t="s">
+        <v>385</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>208</v>
+      </c>
+      <c r="B8" t="s">
+        <v>209</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>212</v>
+      </c>
+      <c r="B9" t="s">
+        <v>213</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2767,13 +6099,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F201C125-9A86-449A-9180-3FE6CACF7FD8}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2784,7 +6116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>613</v>
       </c>
@@ -2795,7 +6127,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>614</v>
       </c>
@@ -2806,7 +6138,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>615</v>
       </c>
@@ -2830,12 +6162,12 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.453125" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2846,7 +6178,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -2857,7 +6189,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -2868,7 +6200,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -2879,7 +6211,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -2890,7 +6222,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>92</v>
       </c>
@@ -2914,9 +6246,9 @@
       <selection activeCell="A2" sqref="A2:XFD21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2927,7 +6259,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -2938,7 +6270,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -2949,7 +6281,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -2960,7 +6292,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -2971,7 +6303,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -2982,7 +6314,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -2993,7 +6325,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -3004,7 +6336,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>612</v>
       </c>
@@ -3015,7 +6347,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>64</v>
       </c>
@@ -3026,7 +6358,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>76</v>
       </c>
@@ -3037,7 +6369,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>80</v>
       </c>
@@ -3048,7 +6380,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>84</v>
       </c>
@@ -3059,7 +6391,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>92</v>
       </c>
@@ -3070,7 +6402,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>96</v>
       </c>
@@ -3081,7 +6413,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>98</v>
       </c>
@@ -3092,7 +6424,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>104</v>
       </c>
@@ -3103,7 +6435,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>106</v>
       </c>
@@ -3114,7 +6446,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>108</v>
       </c>
@@ -3125,7 +6457,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>110</v>
       </c>
@@ -3136,7 +6468,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>112</v>
       </c>
@@ -3160,12 +6492,12 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="41" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3176,7 +6508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -3189,7 +6521,7 @@
       <c r="D2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -3201,7 +6533,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -3213,7 +6545,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -3225,7 +6557,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -3237,7 +6569,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -3249,7 +6581,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -3261,7 +6593,7 @@
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -3273,7 +6605,7 @@
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -3285,7 +6617,7 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -3297,7 +6629,7 @@
       </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -3309,7 +6641,7 @@
       </c>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -3321,7 +6653,7 @@
       </c>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -3333,7 +6665,7 @@
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -3345,7 +6677,7 @@
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -3357,7 +6689,7 @@
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -3369,7 +6701,7 @@
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -3381,7 +6713,7 @@
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -3393,7 +6725,7 @@
       </c>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>50</v>
       </c>
@@ -3405,7 +6737,7 @@
       </c>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>52</v>
       </c>
@@ -3417,7 +6749,7 @@
       </c>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>54</v>
       </c>
@@ -3429,7 +6761,7 @@
       </c>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>56</v>
       </c>
@@ -3441,7 +6773,7 @@
       </c>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>58</v>
       </c>
@@ -3453,7 +6785,7 @@
       </c>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>60</v>
       </c>
@@ -3465,7 +6797,7 @@
       </c>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>62</v>
       </c>
@@ -3477,7 +6809,7 @@
       </c>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>64</v>
       </c>
@@ -3489,7 +6821,7 @@
       </c>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>66</v>
       </c>
@@ -3501,7 +6833,7 @@
       </c>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>68</v>
       </c>
@@ -3513,7 +6845,7 @@
       </c>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>70</v>
       </c>
@@ -3525,7 +6857,7 @@
       </c>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>72</v>
       </c>
@@ -3537,7 +6869,7 @@
       </c>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>74</v>
       </c>
@@ -3549,7 +6881,7 @@
       </c>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>76</v>
       </c>
@@ -3561,7 +6893,7 @@
       </c>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>78</v>
       </c>
@@ -3573,7 +6905,7 @@
       </c>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>80</v>
       </c>
@@ -3585,7 +6917,7 @@
       </c>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>82</v>
       </c>
@@ -3597,7 +6929,7 @@
       </c>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>84</v>
       </c>
@@ -3609,7 +6941,7 @@
       </c>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>86</v>
       </c>
@@ -3621,7 +6953,7 @@
       </c>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>88</v>
       </c>
@@ -3633,7 +6965,7 @@
       </c>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>90</v>
       </c>
@@ -3645,7 +6977,7 @@
       </c>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>92</v>
       </c>
@@ -3657,7 +6989,7 @@
       </c>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>94</v>
       </c>
@@ -3669,7 +7001,7 @@
       </c>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>96</v>
       </c>
@@ -3681,7 +7013,7 @@
       </c>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>98</v>
       </c>
@@ -3693,7 +7025,7 @@
       </c>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>100</v>
       </c>
@@ -3705,7 +7037,7 @@
       </c>
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>102</v>
       </c>
@@ -3717,7 +7049,7 @@
       </c>
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>104</v>
       </c>
@@ -3729,7 +7061,7 @@
       </c>
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>106</v>
       </c>
@@ -3741,7 +7073,7 @@
       </c>
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>108</v>
       </c>
@@ -3753,7 +7085,7 @@
       </c>
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>110</v>
       </c>
@@ -3765,7 +7097,7 @@
       </c>
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>112</v>
       </c>
@@ -3790,9 +7122,9 @@
       <selection activeCell="Y25" sqref="Y25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3803,7 +7135,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>114</v>
       </c>
@@ -3814,7 +7146,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3825,7 +7157,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -3836,7 +7168,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>116</v>
       </c>
@@ -3847,7 +7179,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -3858,7 +7190,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -3869,7 +7201,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>118</v>
       </c>
@@ -3880,7 +7212,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -3891,7 +7223,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -3902,7 +7234,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>120</v>
       </c>
@@ -3913,7 +7245,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -3924,7 +7256,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>122</v>
       </c>
@@ -3935,7 +7267,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -3946,7 +7278,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>124</v>
       </c>
@@ -3957,7 +7289,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -3968,7 +7300,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>126</v>
       </c>
@@ -3979,7 +7311,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>128</v>
       </c>
@@ -3990,7 +7322,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>130</v>
       </c>
@@ -4001,7 +7333,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>132</v>
       </c>
@@ -4012,7 +7344,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -4023,7 +7355,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>134</v>
       </c>
@@ -4034,7 +7366,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -4045,7 +7377,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>136</v>
       </c>
@@ -4056,7 +7388,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>138</v>
       </c>
@@ -4067,7 +7399,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>140</v>
       </c>
@@ -4078,7 +7410,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>142</v>
       </c>
@@ -4089,7 +7421,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>144</v>
       </c>
@@ -4100,7 +7432,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -4111,7 +7443,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -4122,7 +7454,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>146</v>
       </c>
@@ -4133,7 +7465,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -4144,7 +7476,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>148</v>
       </c>
@@ -4155,7 +7487,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>150</v>
       </c>
@@ -4166,7 +7498,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>152</v>
       </c>
@@ -4177,7 +7509,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>154</v>
       </c>
@@ -4188,7 +7520,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>156</v>
       </c>
@@ -4199,7 +7531,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -4210,7 +7542,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>158</v>
       </c>
@@ -4221,7 +7553,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>160</v>
       </c>
@@ -4232,7 +7564,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -4243,7 +7575,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>162</v>
       </c>
@@ -4254,7 +7586,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -4265,7 +7597,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>164</v>
       </c>
@@ -4276,7 +7608,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -4287,7 +7619,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>166</v>
       </c>
@@ -4298,7 +7630,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>168</v>
       </c>
@@ -4309,7 +7641,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -4320,7 +7652,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>170</v>
       </c>
@@ -4331,7 +7663,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>172</v>
       </c>
@@ -4342,7 +7674,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>174</v>
       </c>
@@ -4353,7 +7685,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -4364,7 +7696,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>176</v>
       </c>
@@ -4375,7 +7707,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>178</v>
       </c>
@@ -4386,7 +7718,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -4397,7 +7729,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -4408,7 +7740,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>180</v>
       </c>
@@ -4419,7 +7751,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>182</v>
       </c>
@@ -4430,7 +7762,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>62</v>
       </c>
@@ -4441,7 +7773,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -4452,7 +7784,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>184</v>
       </c>
@@ -4463,7 +7795,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>58</v>
       </c>
@@ -4474,7 +7806,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>64</v>
       </c>
@@ -4485,7 +7817,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>66</v>
       </c>
@@ -4496,7 +7828,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>186</v>
       </c>
@@ -4507,7 +7839,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>188</v>
       </c>
@@ -4518,7 +7850,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>72</v>
       </c>
@@ -4529,7 +7861,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>70</v>
       </c>
@@ -4540,7 +7872,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -4551,7 +7883,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>190</v>
       </c>
@@ -4562,7 +7894,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>192</v>
       </c>
@@ -4573,7 +7905,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>74</v>
       </c>
@@ -4584,7 +7916,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>76</v>
       </c>
@@ -4595,7 +7927,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>194</v>
       </c>
@@ -4606,7 +7938,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>196</v>
       </c>
@@ -4617,7 +7949,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>78</v>
       </c>
@@ -4628,7 +7960,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>80</v>
       </c>
@@ -4639,7 +7971,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>198</v>
       </c>
@@ -4650,7 +7982,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>88</v>
       </c>
@@ -4661,7 +7993,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>84</v>
       </c>
@@ -4672,7 +8004,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>200</v>
       </c>
@@ -4683,7 +8015,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>90</v>
       </c>
@@ -4694,7 +8026,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>202</v>
       </c>
@@ -4705,7 +8037,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>86</v>
       </c>
@@ -4716,7 +8048,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>204</v>
       </c>
@@ -4727,7 +8059,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>82</v>
       </c>
@@ -4738,7 +8070,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>92</v>
       </c>
@@ -4749,7 +8081,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>94</v>
       </c>
@@ -4760,7 +8092,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>206</v>
       </c>
@@ -4771,7 +8103,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>98</v>
       </c>
@@ -4782,7 +8114,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>96</v>
       </c>
@@ -4793,7 +8125,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>208</v>
       </c>
@@ -4804,7 +8136,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>210</v>
       </c>
@@ -4815,7 +8147,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>100</v>
       </c>
@@ -4826,7 +8158,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>102</v>
       </c>
@@ -4837,7 +8169,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>212</v>
       </c>
@@ -4848,7 +8180,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>108</v>
       </c>
@@ -4859,7 +8191,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>104</v>
       </c>
@@ -4870,7 +8202,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>106</v>
       </c>
@@ -4881,7 +8213,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>112</v>
       </c>
@@ -4892,7 +8224,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>110</v>
       </c>
@@ -4916,9 +8248,9 @@
       <selection activeCell="A2" sqref="A2:C201"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4929,7 +8261,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>214</v>
       </c>
@@ -4940,7 +8272,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>216</v>
       </c>
@@ -4951,7 +8283,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>218</v>
       </c>
@@ -4962,7 +8294,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>114</v>
       </c>
@@ -4973,7 +8305,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>220</v>
       </c>
@@ -4984,7 +8316,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>222</v>
       </c>
@@ -4995,7 +8327,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -5006,7 +8338,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>224</v>
       </c>
@@ -5017,7 +8349,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>226</v>
       </c>
@@ -5028,7 +8360,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -5039,7 +8371,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>116</v>
       </c>
@@ -5050,7 +8382,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>228</v>
       </c>
@@ -5061,7 +8393,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -5072,7 +8404,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -5083,7 +8415,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>118</v>
       </c>
@@ -5094,7 +8426,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -5105,7 +8437,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>230</v>
       </c>
@@ -5116,7 +8448,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -5127,7 +8459,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>232</v>
       </c>
@@ -5138,7 +8470,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>234</v>
       </c>
@@ -5149,7 +8481,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>236</v>
       </c>
@@ -5160,7 +8492,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>120</v>
       </c>
@@ -5171,7 +8503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -5182,7 +8514,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>122</v>
       </c>
@@ -5193,7 +8525,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -5204,7 +8536,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>238</v>
       </c>
@@ -5215,7 +8547,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>124</v>
       </c>
@@ -5226,7 +8558,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>240</v>
       </c>
@@ -5237,7 +8569,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -5248,7 +8580,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>242</v>
       </c>
@@ -5259,7 +8591,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>244</v>
       </c>
@@ -5270,7 +8602,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>126</v>
       </c>
@@ -5281,7 +8613,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>128</v>
       </c>
@@ -5292,7 +8624,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>246</v>
       </c>
@@ -5303,7 +8635,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>248</v>
       </c>
@@ -5314,7 +8646,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>130</v>
       </c>
@@ -5325,7 +8657,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>132</v>
       </c>
@@ -5336,7 +8668,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>250</v>
       </c>
@@ -5347,7 +8679,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>29</v>
       </c>
@@ -5358,7 +8690,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>134</v>
       </c>
@@ -5369,7 +8701,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>34</v>
       </c>
@@ -5380,7 +8712,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>136</v>
       </c>
@@ -5391,7 +8723,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>252</v>
       </c>
@@ -5402,7 +8734,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>254</v>
       </c>
@@ -5413,7 +8745,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>138</v>
       </c>
@@ -5424,7 +8756,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>140</v>
       </c>
@@ -5435,7 +8767,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>142</v>
       </c>
@@ -5446,7 +8778,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>256</v>
       </c>
@@ -5457,7 +8789,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>258</v>
       </c>
@@ -5468,7 +8800,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>260</v>
       </c>
@@ -5479,7 +8811,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>144</v>
       </c>
@@ -5490,7 +8822,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>37</v>
       </c>
@@ -5501,7 +8833,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>262</v>
       </c>
@@ -5512,7 +8844,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>40</v>
       </c>
@@ -5523,7 +8855,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>146</v>
       </c>
@@ -5534,7 +8866,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>264</v>
       </c>
@@ -5545,7 +8877,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>32</v>
       </c>
@@ -5556,7 +8888,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>148</v>
       </c>
@@ -5567,7 +8899,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>266</v>
       </c>
@@ -5578,7 +8910,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>150</v>
       </c>
@@ -5589,7 +8921,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>152</v>
       </c>
@@ -5600,7 +8932,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>154</v>
       </c>
@@ -5611,7 +8943,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>156</v>
       </c>
@@ -5622,7 +8954,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>42</v>
       </c>
@@ -5633,7 +8965,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>268</v>
       </c>
@@ -5644,7 +8976,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>270</v>
       </c>
@@ -5655,7 +8987,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>158</v>
       </c>
@@ -5666,7 +8998,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>272</v>
       </c>
@@ -5677,7 +9009,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>160</v>
       </c>
@@ -5688,7 +9020,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>44</v>
       </c>
@@ -5699,7 +9031,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>274</v>
       </c>
@@ -5710,7 +9042,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>162</v>
       </c>
@@ -5721,7 +9053,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>276</v>
       </c>
@@ -5732,7 +9064,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>278</v>
       </c>
@@ -5743,7 +9075,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>280</v>
       </c>
@@ -5754,7 +9086,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>46</v>
       </c>
@@ -5765,7 +9097,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>164</v>
       </c>
@@ -5776,7 +9108,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>282</v>
       </c>
@@ -5787,7 +9119,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>48</v>
       </c>
@@ -5798,7 +9130,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>284</v>
       </c>
@@ -5809,7 +9141,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>286</v>
       </c>
@@ -5820,7 +9152,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>288</v>
       </c>
@@ -5831,7 +9163,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>290</v>
       </c>
@@ -5842,7 +9174,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>292</v>
       </c>
@@ -5853,7 +9185,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>166</v>
       </c>
@@ -5864,7 +9196,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>294</v>
       </c>
@@ -5875,7 +9207,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>168</v>
       </c>
@@ -5886,7 +9218,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>52</v>
       </c>
@@ -5897,7 +9229,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>170</v>
       </c>
@@ -5908,7 +9240,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>296</v>
       </c>
@@ -5919,7 +9251,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>298</v>
       </c>
@@ -5930,7 +9262,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>172</v>
       </c>
@@ -5941,7 +9273,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>300</v>
       </c>
@@ -5952,7 +9284,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>174</v>
       </c>
@@ -5963,7 +9295,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>302</v>
       </c>
@@ -5974,7 +9306,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>50</v>
       </c>
@@ -5985,7 +9317,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>304</v>
       </c>
@@ -5996,7 +9328,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>306</v>
       </c>
@@ -6007,7 +9339,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>176</v>
       </c>
@@ -6018,7 +9350,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>308</v>
       </c>
@@ -6029,7 +9361,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>178</v>
       </c>
@@ -6040,7 +9372,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>54</v>
       </c>
@@ -6051,7 +9383,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>56</v>
       </c>
@@ -6062,7 +9394,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>180</v>
       </c>
@@ -6073,7 +9405,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>182</v>
       </c>
@@ -6084,7 +9416,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>62</v>
       </c>
@@ -6095,7 +9427,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>310</v>
       </c>
@@ -6106,7 +9438,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>312</v>
       </c>
@@ -6117,7 +9449,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>314</v>
       </c>
@@ -6128,7 +9460,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>60</v>
       </c>
@@ -6139,7 +9471,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>184</v>
       </c>
@@ -6150,7 +9482,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>58</v>
       </c>
@@ -6161,7 +9493,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>316</v>
       </c>
@@ -6172,7 +9504,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>318</v>
       </c>
@@ -6183,7 +9515,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>320</v>
       </c>
@@ -6194,7 +9526,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>322</v>
       </c>
@@ -6205,7 +9537,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>324</v>
       </c>
@@ -6216,7 +9548,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>64</v>
       </c>
@@ -6227,7 +9559,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>326</v>
       </c>
@@ -6238,7 +9570,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>66</v>
       </c>
@@ -6249,7 +9581,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>328</v>
       </c>
@@ -6260,7 +9592,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>330</v>
       </c>
@@ -6271,7 +9603,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>332</v>
       </c>
@@ -6282,7 +9614,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>186</v>
       </c>
@@ -6293,7 +9625,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>334</v>
       </c>
@@ -6304,7 +9636,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>336</v>
       </c>
@@ -6315,7 +9647,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>338</v>
       </c>
@@ -6326,7 +9658,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>340</v>
       </c>
@@ -6337,7 +9669,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>342</v>
       </c>
@@ -6348,7 +9680,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>188</v>
       </c>
@@ -6359,7 +9691,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>344</v>
       </c>
@@ -6370,7 +9702,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>72</v>
       </c>
@@ -6381,7 +9713,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>70</v>
       </c>
@@ -6392,7 +9724,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>68</v>
       </c>
@@ -6403,7 +9735,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>190</v>
       </c>
@@ -6414,7 +9746,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>346</v>
       </c>
@@ -6425,7 +9757,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>348</v>
       </c>
@@ -6436,7 +9768,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>192</v>
       </c>
@@ -6447,7 +9779,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>350</v>
       </c>
@@ -6458,7 +9790,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>352</v>
       </c>
@@ -6469,7 +9801,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>74</v>
       </c>
@@ -6480,7 +9812,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>76</v>
       </c>
@@ -6491,7 +9823,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>194</v>
       </c>
@@ -6502,7 +9834,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>196</v>
       </c>
@@ -6513,7 +9845,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>354</v>
       </c>
@@ -6524,7 +9856,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>356</v>
       </c>
@@ -6535,7 +9867,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>78</v>
       </c>
@@ -6546,7 +9878,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>80</v>
       </c>
@@ -6557,7 +9889,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>198</v>
       </c>
@@ -6568,7 +9900,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>358</v>
       </c>
@@ -6579,7 +9911,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>360</v>
       </c>
@@ -6590,7 +9922,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>362</v>
       </c>
@@ -6601,7 +9933,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>88</v>
       </c>
@@ -6612,7 +9944,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>364</v>
       </c>
@@ -6623,7 +9955,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>366</v>
       </c>
@@ -6634,7 +9966,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>84</v>
       </c>
@@ -6645,7 +9977,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>368</v>
       </c>
@@ -6656,7 +9988,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>370</v>
       </c>
@@ -6667,7 +9999,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>372</v>
       </c>
@@ -6678,7 +10010,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>200</v>
       </c>
@@ -6689,7 +10021,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>374</v>
       </c>
@@ -6700,7 +10032,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>376</v>
       </c>
@@ -6711,7 +10043,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>90</v>
       </c>
@@ -6722,7 +10054,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>202</v>
       </c>
@@ -6733,7 +10065,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>86</v>
       </c>
@@ -6744,7 +10076,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>378</v>
       </c>
@@ -6755,7 +10087,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>380</v>
       </c>
@@ -6766,7 +10098,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>204</v>
       </c>
@@ -6777,7 +10109,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>382</v>
       </c>
@@ -6788,7 +10120,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>384</v>
       </c>
@@ -6799,7 +10131,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>386</v>
       </c>
@@ -6810,7 +10142,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>82</v>
       </c>
@@ -6821,7 +10153,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>388</v>
       </c>
@@ -6832,7 +10164,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>92</v>
       </c>
@@ -6843,7 +10175,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>390</v>
       </c>
@@ -6854,7 +10186,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>392</v>
       </c>
@@ -6865,7 +10197,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>394</v>
       </c>
@@ -6876,7 +10208,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>94</v>
       </c>
@@ -6887,7 +10219,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>396</v>
       </c>
@@ -6898,7 +10230,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>206</v>
       </c>
@@ -6909,7 +10241,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>98</v>
       </c>
@@ -6920,7 +10252,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>398</v>
       </c>
@@ -6931,7 +10263,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>96</v>
       </c>
@@ -6942,7 +10274,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>400</v>
       </c>
@@ -6953,7 +10285,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>402</v>
       </c>
@@ -6964,7 +10296,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>208</v>
       </c>
@@ -6975,7 +10307,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>210</v>
       </c>
@@ -6986,7 +10318,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>100</v>
       </c>
@@ -6997,7 +10329,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>102</v>
       </c>
@@ -7008,7 +10340,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>212</v>
       </c>
@@ -7019,7 +10351,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>404</v>
       </c>
@@ -7030,7 +10362,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>108</v>
       </c>
@@ -7041,7 +10373,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>406</v>
       </c>
@@ -7052,7 +10384,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>104</v>
       </c>
@@ -7063,7 +10395,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>106</v>
       </c>
@@ -7074,7 +10406,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>408</v>
       </c>
@@ -7085,7 +10417,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>410</v>
       </c>
@@ -7096,7 +10428,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>112</v>
       </c>
@@ -7107,7 +10439,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>110</v>
       </c>
@@ -7118,7 +10450,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>412</v>
       </c>
@@ -7139,12 +10471,16 @@
   <dimension ref="A1:C300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W19" sqref="W19"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="49.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7155,7 +10491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>214</v>
       </c>
@@ -7166,7 +10502,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>216</v>
       </c>
@@ -7177,7 +10513,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>218</v>
       </c>
@@ -7188,7 +10524,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>114</v>
       </c>
@@ -7199,7 +10535,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>220</v>
       </c>
@@ -7210,7 +10546,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>222</v>
       </c>
@@ -7221,7 +10557,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>414</v>
       </c>
@@ -7232,7 +10568,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -7243,7 +10579,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>224</v>
       </c>
@@ -7254,7 +10590,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>226</v>
       </c>
@@ -7265,7 +10601,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>416</v>
       </c>
@@ -7276,7 +10612,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -7287,7 +10623,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>116</v>
       </c>
@@ -7298,7 +10634,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>228</v>
       </c>
@@ -7309,7 +10645,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>418</v>
       </c>
@@ -7320,7 +10656,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -7331,7 +10667,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -7342,7 +10678,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>118</v>
       </c>
@@ -7353,7 +10689,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -7364,7 +10700,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>230</v>
       </c>
@@ -7375,7 +10711,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -7386,7 +10722,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>232</v>
       </c>
@@ -7397,7 +10733,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>234</v>
       </c>
@@ -7408,7 +10744,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>420</v>
       </c>
@@ -7419,7 +10755,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>422</v>
       </c>
@@ -7430,7 +10766,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>424</v>
       </c>
@@ -7441,7 +10777,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>236</v>
       </c>
@@ -7452,7 +10788,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>426</v>
       </c>
@@ -7463,7 +10799,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>428</v>
       </c>
@@ -7474,7 +10810,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>430</v>
       </c>
@@ -7485,7 +10821,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>120</v>
       </c>
@@ -7496,7 +10832,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>18</v>
       </c>
@@ -7507,7 +10843,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>432</v>
       </c>
@@ -7518,7 +10854,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>122</v>
       </c>
@@ -7529,7 +10865,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>434</v>
       </c>
@@ -7540,7 +10876,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>436</v>
       </c>
@@ -7551,7 +10887,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>21</v>
       </c>
@@ -7562,7 +10898,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>438</v>
       </c>
@@ -7573,7 +10909,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>238</v>
       </c>
@@ -7584,7 +10920,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>440</v>
       </c>
@@ -7595,7 +10931,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>442</v>
       </c>
@@ -7606,7 +10942,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>124</v>
       </c>
@@ -7617,7 +10953,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>240</v>
       </c>
@@ -7628,7 +10964,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>27</v>
       </c>
@@ -7639,7 +10975,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>444</v>
       </c>
@@ -7650,7 +10986,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>242</v>
       </c>
@@ -7661,7 +10997,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>244</v>
       </c>
@@ -7672,7 +11008,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>446</v>
       </c>
@@ -7683,7 +11019,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>126</v>
       </c>
@@ -7694,7 +11030,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>128</v>
       </c>
@@ -7705,7 +11041,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>246</v>
       </c>
@@ -7716,7 +11052,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>248</v>
       </c>
@@ -7727,7 +11063,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>130</v>
       </c>
@@ -7738,7 +11074,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>132</v>
       </c>
@@ -7749,7 +11085,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>250</v>
       </c>
@@ -7760,7 +11096,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>448</v>
       </c>
@@ -7771,7 +11107,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>29</v>
       </c>
@@ -7782,7 +11118,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>450</v>
       </c>
@@ -7793,7 +11129,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>134</v>
       </c>
@@ -7804,7 +11140,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>34</v>
       </c>
@@ -7815,7 +11151,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>136</v>
       </c>
@@ -7826,7 +11162,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>252</v>
       </c>
@@ -7837,7 +11173,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>452</v>
       </c>
@@ -7848,7 +11184,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>254</v>
       </c>
@@ -7859,7 +11195,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>138</v>
       </c>
@@ -7870,7 +11206,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>140</v>
       </c>
@@ -7881,7 +11217,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>142</v>
       </c>
@@ -7892,7 +11228,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>454</v>
       </c>
@@ -7903,7 +11239,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>456</v>
       </c>
@@ -7914,7 +11250,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>458</v>
       </c>
@@ -7925,7 +11261,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>460</v>
       </c>
@@ -7936,7 +11272,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>256</v>
       </c>
@@ -7947,7 +11283,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>462</v>
       </c>
@@ -7958,7 +11294,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>258</v>
       </c>
@@ -7969,7 +11305,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>260</v>
       </c>
@@ -7980,7 +11316,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>464</v>
       </c>
@@ -7991,7 +11327,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>144</v>
       </c>
@@ -8002,7 +11338,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>37</v>
       </c>
@@ -8013,7 +11349,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>262</v>
       </c>
@@ -8024,7 +11360,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>40</v>
       </c>
@@ -8035,7 +11371,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>146</v>
       </c>
@@ -8046,7 +11382,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>264</v>
       </c>
@@ -8057,7 +11393,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>32</v>
       </c>
@@ -8068,7 +11404,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>148</v>
       </c>
@@ -8079,7 +11415,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>466</v>
       </c>
@@ -8090,7 +11426,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>266</v>
       </c>
@@ -8101,7 +11437,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>150</v>
       </c>
@@ -8112,7 +11448,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>468</v>
       </c>
@@ -8123,7 +11459,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>152</v>
       </c>
@@ -8134,7 +11470,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>154</v>
       </c>
@@ -8145,7 +11481,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>156</v>
       </c>
@@ -8156,7 +11492,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>42</v>
       </c>
@@ -8167,7 +11503,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>268</v>
       </c>
@@ -8178,7 +11514,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>270</v>
       </c>
@@ -8189,7 +11525,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>470</v>
       </c>
@@ -8200,7 +11536,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>472</v>
       </c>
@@ -8211,7 +11547,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>474</v>
       </c>
@@ -8222,7 +11558,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>158</v>
       </c>
@@ -8233,7 +11569,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>476</v>
       </c>
@@ -8244,7 +11580,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>272</v>
       </c>
@@ -8255,7 +11591,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>478</v>
       </c>
@@ -8266,7 +11602,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>160</v>
       </c>
@@ -8277,7 +11613,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>44</v>
       </c>
@@ -8288,7 +11624,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>480</v>
       </c>
@@ -8299,7 +11635,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>274</v>
       </c>
@@ -8310,7 +11646,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>162</v>
       </c>
@@ -8321,7 +11657,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>276</v>
       </c>
@@ -8332,7 +11668,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>482</v>
       </c>
@@ -8343,7 +11679,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>484</v>
       </c>
@@ -8354,7 +11690,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>278</v>
       </c>
@@ -8365,7 +11701,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>280</v>
       </c>
@@ -8376,7 +11712,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>46</v>
       </c>
@@ -8387,7 +11723,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>164</v>
       </c>
@@ -8398,7 +11734,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>486</v>
       </c>
@@ -8409,7 +11745,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>282</v>
       </c>
@@ -8420,7 +11756,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>48</v>
       </c>
@@ -8431,7 +11767,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>284</v>
       </c>
@@ -8442,7 +11778,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>286</v>
       </c>
@@ -8453,7 +11789,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>288</v>
       </c>
@@ -8464,7 +11800,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>290</v>
       </c>
@@ -8475,7 +11811,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>292</v>
       </c>
@@ -8486,7 +11822,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>488</v>
       </c>
@@ -8497,7 +11833,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>490</v>
       </c>
@@ -8508,7 +11844,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>492</v>
       </c>
@@ -8519,7 +11855,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>494</v>
       </c>
@@ -8530,7 +11866,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>166</v>
       </c>
@@ -8541,7 +11877,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>294</v>
       </c>
@@ -8552,7 +11888,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>496</v>
       </c>
@@ -8563,7 +11899,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>168</v>
       </c>
@@ -8574,7 +11910,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>52</v>
       </c>
@@ -8585,7 +11921,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>498</v>
       </c>
@@ -8596,7 +11932,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>500</v>
       </c>
@@ -8607,7 +11943,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>170</v>
       </c>
@@ -8618,7 +11954,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>502</v>
       </c>
@@ -8629,7 +11965,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>296</v>
       </c>
@@ -8640,7 +11976,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>298</v>
       </c>
@@ -8651,7 +11987,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>172</v>
       </c>
@@ -8662,7 +11998,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>504</v>
       </c>
@@ -8673,7 +12009,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>506</v>
       </c>
@@ -8684,7 +12020,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>508</v>
       </c>
@@ -8695,7 +12031,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>510</v>
       </c>
@@ -8706,7 +12042,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>300</v>
       </c>
@@ -8717,7 +12053,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>174</v>
       </c>
@@ -8728,7 +12064,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>512</v>
       </c>
@@ -8739,7 +12075,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>302</v>
       </c>
@@ -8750,7 +12086,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>50</v>
       </c>
@@ -8761,7 +12097,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>304</v>
       </c>
@@ -8772,7 +12108,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>514</v>
       </c>
@@ -8783,7 +12119,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>516</v>
       </c>
@@ -8794,7 +12130,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>306</v>
       </c>
@@ -8805,7 +12141,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>176</v>
       </c>
@@ -8816,7 +12152,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>308</v>
       </c>
@@ -8827,7 +12163,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>178</v>
       </c>
@@ -8838,7 +12174,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>54</v>
       </c>
@@ -8849,7 +12185,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>518</v>
       </c>
@@ -8860,7 +12196,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>56</v>
       </c>
@@ -8871,7 +12207,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>520</v>
       </c>
@@ -8882,7 +12218,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>180</v>
       </c>
@@ -8893,7 +12229,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>522</v>
       </c>
@@ -8904,7 +12240,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>182</v>
       </c>
@@ -8915,7 +12251,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>62</v>
       </c>
@@ -8926,7 +12262,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>310</v>
       </c>
@@ -8937,7 +12273,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>524</v>
       </c>
@@ -8948,7 +12284,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>526</v>
       </c>
@@ -8959,7 +12295,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>312</v>
       </c>
@@ -8970,7 +12306,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>314</v>
       </c>
@@ -8981,7 +12317,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>528</v>
       </c>
@@ -8992,7 +12328,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>530</v>
       </c>
@@ -9003,7 +12339,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>60</v>
       </c>
@@ -9014,7 +12350,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>184</v>
       </c>
@@ -9025,7 +12361,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>58</v>
       </c>
@@ -9036,7 +12372,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>532</v>
       </c>
@@ -9047,7 +12383,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>316</v>
       </c>
@@ -9058,7 +12394,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>318</v>
       </c>
@@ -9069,7 +12405,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>534</v>
       </c>
@@ -9080,7 +12416,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>320</v>
       </c>
@@ -9091,7 +12427,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>322</v>
       </c>
@@ -9102,7 +12438,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>536</v>
       </c>
@@ -9113,7 +12449,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>324</v>
       </c>
@@ -9124,7 +12460,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>64</v>
       </c>
@@ -9135,7 +12471,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>326</v>
       </c>
@@ -9146,7 +12482,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>538</v>
       </c>
@@ -9157,7 +12493,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>66</v>
       </c>
@@ -9168,7 +12504,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>328</v>
       </c>
@@ -9179,7 +12515,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>330</v>
       </c>
@@ -9190,7 +12526,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>332</v>
       </c>
@@ -9201,7 +12537,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>186</v>
       </c>
@@ -9212,7 +12548,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>540</v>
       </c>
@@ -9223,7 +12559,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>334</v>
       </c>
@@ -9234,7 +12570,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>336</v>
       </c>
@@ -9245,7 +12581,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>338</v>
       </c>
@@ -9256,7 +12592,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>340</v>
       </c>
@@ -9267,7 +12603,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>542</v>
       </c>
@@ -9278,7 +12614,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>544</v>
       </c>
@@ -9289,7 +12625,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>342</v>
       </c>
@@ -9300,7 +12636,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>188</v>
       </c>
@@ -9311,7 +12647,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>344</v>
       </c>
@@ -9322,7 +12658,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>72</v>
       </c>
@@ -9333,7 +12669,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>70</v>
       </c>
@@ -9344,7 +12680,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>68</v>
       </c>
@@ -9355,7 +12691,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>190</v>
       </c>
@@ -9366,7 +12702,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>346</v>
       </c>
@@ -9377,7 +12713,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>546</v>
       </c>
@@ -9388,7 +12724,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>548</v>
       </c>
@@ -9399,7 +12735,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>348</v>
       </c>
@@ -9410,7 +12746,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>192</v>
       </c>
@@ -9421,7 +12757,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>550</v>
       </c>
@@ -9432,7 +12768,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>552</v>
       </c>
@@ -9443,7 +12779,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>350</v>
       </c>
@@ -9454,7 +12790,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>352</v>
       </c>
@@ -9465,7 +12801,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>74</v>
       </c>
@@ -9476,7 +12812,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>76</v>
       </c>
@@ -9487,7 +12823,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>194</v>
       </c>
@@ -9498,7 +12834,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>554</v>
       </c>
@@ -9509,7 +12845,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>556</v>
       </c>
@@ -9520,7 +12856,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>196</v>
       </c>
@@ -9531,7 +12867,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>354</v>
       </c>
@@ -9542,7 +12878,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>558</v>
       </c>
@@ -9553,7 +12889,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>356</v>
       </c>
@@ -9564,7 +12900,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>78</v>
       </c>
@@ -9575,7 +12911,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>560</v>
       </c>
@@ -9586,7 +12922,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>80</v>
       </c>
@@ -9597,7 +12933,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>198</v>
       </c>
@@ -9608,7 +12944,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>358</v>
       </c>
@@ -9619,7 +12955,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>360</v>
       </c>
@@ -9630,7 +12966,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>362</v>
       </c>
@@ -9641,7 +12977,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>88</v>
       </c>
@@ -9652,7 +12988,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>364</v>
       </c>
@@ -9663,7 +12999,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>366</v>
       </c>
@@ -9674,7 +13010,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>84</v>
       </c>
@@ -9685,7 +13021,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>562</v>
       </c>
@@ -9696,7 +13032,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>368</v>
       </c>
@@ -9707,7 +13043,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>370</v>
       </c>
@@ -9718,7 +13054,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>372</v>
       </c>
@@ -9729,7 +13065,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>564</v>
       </c>
@@ -9740,7 +13076,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>200</v>
       </c>
@@ -9751,7 +13087,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>374</v>
       </c>
@@ -9762,7 +13098,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>566</v>
       </c>
@@ -9773,7 +13109,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>376</v>
       </c>
@@ -9784,7 +13120,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>90</v>
       </c>
@@ -9795,7 +13131,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>202</v>
       </c>
@@ -9806,7 +13142,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>86</v>
       </c>
@@ -9817,7 +13153,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>568</v>
       </c>
@@ -9828,7 +13164,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>378</v>
       </c>
@@ -9839,7 +13175,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>570</v>
       </c>
@@ -9850,7 +13186,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>572</v>
       </c>
@@ -9861,7 +13197,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>380</v>
       </c>
@@ -9872,7 +13208,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>204</v>
       </c>
@@ -9883,7 +13219,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>574</v>
       </c>
@@ -9894,7 +13230,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>576</v>
       </c>
@@ -9905,7 +13241,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>578</v>
       </c>
@@ -9916,7 +13252,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>580</v>
       </c>
@@ -9927,7 +13263,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>382</v>
       </c>
@@ -9938,7 +13274,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>384</v>
       </c>
@@ -9949,7 +13285,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>582</v>
       </c>
@@ -9960,7 +13296,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>584</v>
       </c>
@@ -9971,7 +13307,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>386</v>
       </c>
@@ -9982,7 +13318,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>586</v>
       </c>
@@ -9993,7 +13329,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>82</v>
       </c>
@@ -10004,7 +13340,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>388</v>
       </c>
@@ -10015,7 +13351,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>92</v>
       </c>
@@ -10026,7 +13362,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>390</v>
       </c>
@@ -10037,7 +13373,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>392</v>
       </c>
@@ -10048,7 +13384,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>394</v>
       </c>
@@ -10059,7 +13395,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>588</v>
       </c>
@@ -10070,7 +13406,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>94</v>
       </c>
@@ -10081,7 +13417,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>396</v>
       </c>
@@ -10092,7 +13428,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>206</v>
       </c>
@@ -10103,7 +13439,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>98</v>
       </c>
@@ -10114,7 +13450,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>590</v>
       </c>
@@ -10125,7 +13461,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>398</v>
       </c>
@@ -10136,7 +13472,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>96</v>
       </c>
@@ -10147,7 +13483,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>400</v>
       </c>
@@ -10158,7 +13494,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>402</v>
       </c>
@@ -10169,7 +13505,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>592</v>
       </c>
@@ -10180,7 +13516,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>208</v>
       </c>
@@ -10191,7 +13527,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>210</v>
       </c>
@@ -10202,7 +13538,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>100</v>
       </c>
@@ -10213,7 +13549,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>102</v>
       </c>
@@ -10224,7 +13560,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>594</v>
       </c>
@@ -10235,7 +13571,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>212</v>
       </c>
@@ -10246,7 +13582,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>596</v>
       </c>
@@ -10257,7 +13593,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>598</v>
       </c>
@@ -10268,7 +13604,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>600</v>
       </c>
@@ -10279,7 +13615,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>404</v>
       </c>
@@ -10290,7 +13626,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>602</v>
       </c>
@@ -10301,7 +13637,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>108</v>
       </c>
@@ -10312,7 +13648,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>406</v>
       </c>
@@ -10323,7 +13659,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>104</v>
       </c>
@@ -10334,7 +13670,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>106</v>
       </c>
@@ -10345,7 +13681,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>604</v>
       </c>
@@ -10356,7 +13692,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>408</v>
       </c>
@@ -10367,7 +13703,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>410</v>
       </c>
@@ -10378,7 +13714,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>112</v>
       </c>
@@ -10389,7 +13725,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>110</v>
       </c>
@@ -10400,7 +13736,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>606</v>
       </c>
@@ -10411,7 +13747,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>412</v>
       </c>
@@ -10422,7 +13758,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>608</v>
       </c>
@@ -10433,7 +13769,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>610</v>
       </c>
@@ -10442,6 +13778,268 @@
       </c>
       <c r="C300" t="s">
         <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CCC2BF3-9512-4873-A9BC-49C83D87A3D6}">
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>438</v>
+      </c>
+      <c r="B5" t="s">
+        <v>439</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>240</v>
+      </c>
+      <c r="B6" t="s">
+        <v>241</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>242</v>
+      </c>
+      <c r="B7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>448</v>
+      </c>
+      <c r="B8" t="s">
+        <v>449</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>254</v>
+      </c>
+      <c r="B10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>470</v>
+      </c>
+      <c r="B11" t="s">
+        <v>471</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>480</v>
+      </c>
+      <c r="B12" t="s">
+        <v>481</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B13" t="s">
+        <v>165</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>510</v>
+      </c>
+      <c r="B14" t="s">
+        <v>511</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>318</v>
+      </c>
+      <c r="B15" t="s">
+        <v>319</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>560</v>
+      </c>
+      <c r="B16" t="s">
+        <v>561</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>568</v>
+      </c>
+      <c r="B17" t="s">
+        <v>569</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>398</v>
+      </c>
+      <c r="B18" t="s">
+        <v>399</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>602</v>
+      </c>
+      <c r="B20" t="s">
+        <v>603</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B21" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>112</v>
+      </c>
+      <c r="B22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Input/StockList.xlsx
+++ b/Input/StockList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camwa\Documents\Google Drive\WORK\Post-Graduate\Capstone\Code\Pluto\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA9AD17-631F-4960-9C34-9A08964C983D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2807E5B8-D53F-4008-A940-A0AD4A5F102E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11280" tabRatio="873" firstSheet="7" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11280" tabRatio="873" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="6" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2988" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2988" uniqueCount="619">
   <si>
     <t>Code</t>
   </si>
@@ -1877,9 +1877,6 @@
   </si>
   <si>
     <t>Xero Limited NZX</t>
-  </si>
-  <si>
-    <t>ER!</t>
   </si>
   <si>
     <t>XXX</t>
@@ -5985,7 +5982,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFAE80CB-B75E-4A8D-B0B5-34D35E246F1F}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
@@ -6118,35 +6115,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B4" t="s">
+        <v>617</v>
+      </c>
+      <c r="C4" t="s">
         <v>618</v>
-      </c>
-      <c r="C4" t="s">
-        <v>619</v>
       </c>
     </row>
   </sheetData>
@@ -6242,8 +6239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6338,7 +6335,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>612</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
         <v>59</v>
@@ -6489,7 +6486,7 @@
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
